--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1726.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1726.xlsx
@@ -354,7 +354,7 @@
         <v>0.947574958227226</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.763941316625144</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1726.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1726.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4524754417568322</v>
+        <v>0.9080969095230103</v>
       </c>
       <c r="B1">
-        <v>0.947574958227226</v>
+        <v>1.733759760856628</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.763941316625144</v>
+        <v>1.864870071411133</v>
       </c>
       <c r="E1">
-        <v>1.829554859524677</v>
+        <v>1.104066848754883</v>
       </c>
     </row>
   </sheetData>
